--- a/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [config 2].xlsx
+++ b/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [config 2].xlsx
@@ -153,7 +153,7 @@
     <t>керам., чип 0603, X7R, 0.068мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C2, C9, C10, C11, C14, C15, C17, C18, C19C, C19F, C19D, C19E, C19G, C19A, C19B, C20B, C20C, C20A, C21A, C22G, C22F, C22C, C22E, C22D, C22B, C22A, C23G, C23A, C23F, C23E, C23B, C23C, C23D, C24A, C24G, C24F, C24E, C24B, C24D, C24C</t>
+    <t>C2, C9, C10, C11, C14, C15, C17, C18, C19D, C19E, C19F, C19G, C19B, C19A, C19C, C20A, C20B, C20C, C21A, C22B, C22C, C22G, C22A, C22F, C22D, C22E, C23B, C23A, C23G, C23C, C23F, C23E, C23D, C24E, C24F, C24G, C24A, C24B, C24C, C24D</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
@@ -162,7 +162,7 @@
     <t>керам., чип 0603, X7R, 0.1мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C20D, C20E, C20G, C20F</t>
+    <t>C20F, C20D, C20E, C20G</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB224</t>

--- a/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [config 2].xlsx
+++ b/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [config 2].xlsx
@@ -153,7 +153,7 @@
     <t>керам., чип 0603, X7R, 0.068мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C2, C9, C10, C11, C14, C15, C17, C18, C19D, C19E, C19F, C19G, C19B, C19A, C19C, C20A, C20B, C20C, C21A, C22B, C22C, C22G, C22A, C22F, C22D, C22E, C23B, C23A, C23G, C23C, C23F, C23E, C23D, C24E, C24F, C24G, C24A, C24B, C24C, C24D</t>
+    <t>C2, C9, C10, C11, C14, C15, C17, C18, C19G, C19F, C19E, C19A, C19B, C19D, C19C, C20A, C20B, C20C, C21A, C22B, C22D, C22C, C22F, C22E, C22G, C22A, C23A, C23B, C23C, C23D, C23E, C23F, C23G, C24C, C24E, C24D, C24A, C24B, C24G, C24F</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
@@ -162,7 +162,7 @@
     <t>керам., чип 0603, X7R, 0.1мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C20F, C20D, C20E, C20G</t>
+    <t>C20G, C20F, C20E, C20D</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB224</t>

--- a/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [config 2].xlsx
+++ b/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [config 2].xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="419">
   <si>
     <t>Поз. обозначение</t>
   </si>
@@ -153,7 +153,7 @@
     <t>керам., чип 0603, X7R, 0.068мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C2, C9, C10, C11, C14, C15, C17, C18, C19G, C19F, C19E, C19A, C19B, C19D, C19C, C20A, C20B, C20C, C21A, C22B, C22D, C22C, C22F, C22E, C22G, C22A, C23A, C23B, C23C, C23D, C23E, C23F, C23G, C24C, C24E, C24D, C24A, C24B, C24G, C24F</t>
+    <t>C2, C9, C10, C11, C14, C15, C17, C18, C19F, C19D, C19G, C19E, C19C, C19A, C19B, C20B, C20C, C20A, C21A, C22F, C22E, C22D, C22B, C22C, C22A, C22G, C23A, C23B, C23F, C23C, C23D, C23G, C23E, C24G, C24B, C24A, C24C, C24D, C24E, C24F</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
@@ -162,7 +162,7 @@
     <t>керам., чип 0603, X7R, 0.1мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C20G, C20F, C20E, C20D</t>
+    <t>C20E, C20G, C20F, C20D</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB224</t>
@@ -1237,6 +1237,12 @@
   </si>
   <si>
     <t>Изнач. производитель</t>
+  </si>
+  <si>
+    <t>Изнач. кол-во</t>
+  </si>
+  <si>
+    <t>Зам. кол-во</t>
   </si>
   <si>
     <t>Зам. номинал</t>
@@ -3999,12 +4005,12 @@
   <cols>
     <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="70.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4015,22 +4021,22 @@
         <v>406</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>407</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>408</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4050,24 +4056,24 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="F3" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4095,10 +4101,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="F5" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4126,10 +4132,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="F7" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4149,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [config 2].xlsx
+++ b/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [config 2].xlsx
@@ -153,7 +153,7 @@
     <t>керам., чип 0603, X7R, 0.068мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C2, C9, C10, C11, C14, C15, C17, C18, C19F, C19D, C19G, C19E, C19C, C19A, C19B, C20B, C20C, C20A, C21A, C22F, C22E, C22D, C22B, C22C, C22A, C22G, C23A, C23B, C23F, C23C, C23D, C23G, C23E, C24G, C24B, C24A, C24C, C24D, C24E, C24F</t>
+    <t>C2, C9, C10, C11, C14, C15, C17, C18, C19C, C19A, C19B, C19D, C19E, C19F, C19G, C20A, C20B, C20C, C21A, C22A, C22B, C22C, C22E, C22D, C22G, C22F, C23C, C23B, C23A, C23D, C23E, C23F, C23G, C24B, C24C, C24A, C24G, C24F, C24E, C24D</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
@@ -162,7 +162,7 @@
     <t>керам., чип 0603, X7R, 0.1мкФ ±10%, 50В</t>
   </si>
   <si>
-    <t>C20E, C20G, C20F, C20D</t>
+    <t>C20D, C20E, C20F, C20G</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB224</t>
